--- a/Energy Consumption27.xlsx
+++ b/Energy Consumption27.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.924229082053751</v>
+        <v>1.721470851391172</v>
       </c>
       <c r="C2" t="n">
-        <v>3.687236885354367</v>
+        <v>0.9234690187349804</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.459033079786391</v>
+        <v>3.486192098951822</v>
       </c>
       <c r="C3" t="n">
-        <v>7.761112436027769</v>
+        <v>1.944776428788816</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.518959685984379</v>
+        <v>5.291008189270382</v>
       </c>
       <c r="C4" t="n">
-        <v>11.35856081361599</v>
+        <v>3.169215447447818</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.36903776052898</v>
+        <v>5.587584589080254</v>
       </c>
       <c r="C5" t="n">
-        <v>15.93791529930435</v>
+        <v>4.090188008681169</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.00579818913482</v>
+        <v>10.79464947974671</v>
       </c>
       <c r="C6" t="n">
-        <v>19.8761422508331</v>
+        <v>5.042048921878017</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.33905020780543</v>
+        <v>11.61253535479567</v>
       </c>
       <c r="C7" t="n">
-        <v>24.03157115861113</v>
+        <v>5.900352457760341</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.66213756285845</v>
+        <v>12.02696128401184</v>
       </c>
       <c r="C8" t="n">
-        <v>28.36929561188673</v>
+        <v>7.395425997841303</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16.22731977598075</v>
+        <v>15.12996035942051</v>
       </c>
       <c r="C9" t="n">
-        <v>32.83499064412113</v>
+        <v>8.347768715480118</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16.77132712023675</v>
+        <v>16.53251100512178</v>
       </c>
       <c r="C10" t="n">
-        <v>37.10258221641593</v>
+        <v>9.346900283863405</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.53271040733804</v>
+        <v>16.81680184152511</v>
       </c>
       <c r="C11" t="n">
-        <v>41.74138431707197</v>
+        <v>10.19490799257818</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20.81842085172153</v>
+        <v>17.43491540630607</v>
       </c>
       <c r="C12" t="n">
-        <v>45.58797392375174</v>
+        <v>11.00354207578137</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.91691531810396</v>
+        <v>18.31605758012822</v>
       </c>
       <c r="C13" t="n">
-        <v>50.2678950060212</v>
+        <v>12.0660174305829</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.14328561544388</v>
+        <v>21.29847252930778</v>
       </c>
       <c r="C14" t="n">
-        <v>54.08822246472192</v>
+        <v>13.39321972155926</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26.28637401166765</v>
+        <v>26.06078701724958</v>
       </c>
       <c r="C15" t="n">
-        <v>58.41700215578547</v>
+        <v>14.61595394567654</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>27.98473114539965</v>
+        <v>27.42617037529666</v>
       </c>
       <c r="C16" t="n">
-        <v>62.27832252475935</v>
+        <v>15.62119540484504</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>30.38442041966982</v>
+        <v>27.6750834583812</v>
       </c>
       <c r="C17" t="n">
-        <v>66.85788707427079</v>
+        <v>16.54262382415783</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>33.30997575294717</v>
+        <v>27.84690271063112</v>
       </c>
       <c r="C18" t="n">
-        <v>70.62966146263298</v>
+        <v>17.57604501832896</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>35.35674140757809</v>
+        <v>30.74247008811135</v>
       </c>
       <c r="C19" t="n">
-        <v>75.14646094799896</v>
+        <v>19.59722326389782</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>38.8332830752323</v>
+        <v>31.38430989350973</v>
       </c>
       <c r="C20" t="n">
-        <v>79.64278275849817</v>
+        <v>20.60096842483541</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40.16051221798847</v>
+        <v>33.4119129860735</v>
       </c>
       <c r="C21" t="n">
-        <v>83.53172176822</v>
+        <v>21.67735797213086</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.03670437353909</v>
+        <v>37.36764397841052</v>
       </c>
       <c r="C22" t="n">
-        <v>87.5557450574366</v>
+        <v>22.67995873243806</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>44.87368905329735</v>
+        <v>39.44914260255963</v>
       </c>
       <c r="C23" t="n">
-        <v>91.28122382155651</v>
+        <v>23.59435296827072</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>48.88605836758342</v>
+        <v>39.77514401976434</v>
       </c>
       <c r="C24" t="n">
-        <v>95.47976222290838</v>
+        <v>24.9234581430823</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>50.08199002606887</v>
+        <v>39.93362051959899</v>
       </c>
       <c r="C25" t="n">
-        <v>99.91805042167283</v>
+        <v>25.81863002316024</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>51.51537239973901</v>
+        <v>43.67401244288455</v>
       </c>
       <c r="C26" t="n">
-        <v>104.3642488800702</v>
+        <v>26.80947622745665</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>55.14342650051726</v>
+        <v>47.81403792188777</v>
       </c>
       <c r="C27" t="n">
-        <v>108.2308960334562</v>
+        <v>27.72333735057278</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>57.00955517640802</v>
+        <v>47.97811568950357</v>
       </c>
       <c r="C28" t="n">
-        <v>112.5665225120288</v>
+        <v>28.7825416204646</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>59.16418690059727</v>
+        <v>52.81887057730511</v>
       </c>
       <c r="C29" t="n">
-        <v>116.286988381033</v>
+        <v>30.31721839728307</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>59.73766523043856</v>
+        <v>53.07783868975601</v>
       </c>
       <c r="C30" t="n">
-        <v>120.2961771470345</v>
+        <v>31.49556251505136</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>62.31506770419118</v>
+        <v>53.90148682097326</v>
       </c>
       <c r="C31" t="n">
-        <v>124.8583239273993</v>
+        <v>32.41442166081525</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>63.15060491556416</v>
+        <v>58.00674136434694</v>
       </c>
       <c r="C32" t="n">
-        <v>129.2048938874056</v>
+        <v>33.3409564680513</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>64.96370520794295</v>
+        <v>64.87479573449659</v>
       </c>
       <c r="C33" t="n">
-        <v>133.5544585082649</v>
+        <v>34.27945796942749</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>67.90764488189654</v>
+        <v>65.33836825404471</v>
       </c>
       <c r="C34" t="n">
-        <v>137.8232352812362</v>
+        <v>35.45960740508962</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>69.3023328044311</v>
+        <v>68.2367885623102</v>
       </c>
       <c r="C35" t="n">
-        <v>142.4011503965793</v>
+        <v>36.64841443579079</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>70.52984292692108</v>
+        <v>70.5891350281524</v>
       </c>
       <c r="C36" t="n">
-        <v>146.8437574391768</v>
+        <v>37.59966142548254</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>75.65174326036691</v>
+        <v>72.8914300464168</v>
       </c>
       <c r="C37" t="n">
-        <v>150.9587456823552</v>
+        <v>38.77413408081087</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>77.67640387813302</v>
+        <v>73.20859702792586</v>
       </c>
       <c r="C38" t="n">
-        <v>155.5757711977616</v>
+        <v>39.91361350474125</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>80.11017864545954</v>
+        <v>77.26228268374241</v>
       </c>
       <c r="C39" t="n">
-        <v>159.4021230270934</v>
+        <v>41.12135812766236</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>82.94166537978369</v>
+        <v>78.90674977238301</v>
       </c>
       <c r="C40" t="n">
-        <v>164.2298736292676</v>
+        <v>42.02951212724357</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>84.38395194457877</v>
+        <v>79.96219785761541</v>
       </c>
       <c r="C41" t="n">
-        <v>168.4274806594077</v>
+        <v>43.2011265791078</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>86.12625483934528</v>
+        <v>82.26516207262878</v>
       </c>
       <c r="C42" t="n">
-        <v>172.5786824943034</v>
+        <v>44.5205962535062</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>87.45748840116957</v>
+        <v>82.39474874932522</v>
       </c>
       <c r="C43" t="n">
-        <v>176.9290301642679</v>
+        <v>45.34907153737197</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>89.41100090082237</v>
+        <v>83.07104152212452</v>
       </c>
       <c r="C44" t="n">
-        <v>180.9281372497447</v>
+        <v>46.52626588052185</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>91.3720355214892</v>
+        <v>83.57871486788777</v>
       </c>
       <c r="C45" t="n">
-        <v>184.8765362887422</v>
+        <v>47.71808363082739</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>93.27226143164941</v>
+        <v>83.78785685756327</v>
       </c>
       <c r="C46" t="n">
-        <v>188.6379441159363</v>
+        <v>49.04603829320707</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>94.77601422295628</v>
+        <v>84.04936068813316</v>
       </c>
       <c r="C47" t="n">
-        <v>193.0074910872785</v>
+        <v>49.89280821882973</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>96.5999538706443</v>
+        <v>87.70181312624476</v>
       </c>
       <c r="C48" t="n">
-        <v>197.2925636026936</v>
+        <v>51.07171699501184</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>98.20595184474141</v>
+        <v>89.84885690733311</v>
       </c>
       <c r="C49" t="n">
-        <v>201.5720138414725</v>
+        <v>52.35562049597146</v>
       </c>
     </row>
     <row r="50">
@@ -978,10 +978,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>99.99712766272971</v>
+        <v>96.78473914802133</v>
       </c>
       <c r="C50" t="n">
-        <v>205.9907006983034</v>
+        <v>53.55599024731602</v>
       </c>
     </row>
   </sheetData>
